--- a/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BA842F-201D-4819-9793-79153758B838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712B21CD-99CA-40E3-9D95-43DF85CA6A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="1980" windowWidth="22365" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>39.96.194.143</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -130,6 +138,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -450,7 +461,18 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -464,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -478,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -492,18 +514,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
-        <v>20101</v>
+        <v>20301</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712B21CD-99CA-40E3-9D95-43DF85CA6A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6FB92D-ABD6-481C-8DD3-6D917666FF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4410" yWindow="1980" windowWidth="22365" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -49,19 +49,15 @@
     <t>string</t>
   </si>
   <si>
-    <t>172.17.94.24</t>
+    <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>39.96.194.143</t>
+    <t>172.17.94.25</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
+    <t>47.94.107.92</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +445,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -463,13 +459,13 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -519,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>11</v>

--- a/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6FB92D-ABD6-481C-8DD3-6D917666FF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89ADDE-E94E-451C-8CA4-CE51E057C7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1980" windowWidth="22365" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="1095" windowWidth="22365" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>47.94.107.92</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.17.94.24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.96.194.143</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -457,6 +465,14 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -521,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="5">
-        <v>20301</v>
+        <v>20201</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89ADDE-E94E-451C-8CA4-CE51E057C7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75293836-6F7F-42B2-B898-DB920D867555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="1095" windowWidth="22365" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="1440" windowWidth="22365" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -58,14 +58,6 @@
   </si>
   <si>
     <t>47.94.107.92</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.17.94.24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.96.194.143</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +445,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -466,12 +458,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">

--- a/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75293836-6F7F-42B2-B898-DB920D867555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B705F24-AA23-4B26-82B5-7114BF9EFE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="1440" windowWidth="22365" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>47.94.107.92</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.17.94.24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.96.194.143</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +453,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -458,8 +466,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
@@ -519,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5">
         <v>20201</v>

--- a/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartMachineConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B705F24-AA23-4B26-82B5-7114BF9EFE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6809B6C7-9798-4596-B676-95C5A91DFF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -531,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>20201</v>
